--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Productos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B6CE26-8DCD-466B-9C43-DCC21E8F74E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1409A-86C4-458D-81B8-1C48EA3A2DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="806" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="806" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="80">
   <si>
     <t>Descripción</t>
   </si>
@@ -787,6 +787,54 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,54 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="F1" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1285,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,70 +1411,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="63" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Producto Por Fabricante</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="80" t="str">
+      <c r="B3" s="64" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante en particular</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1558,7 +1558,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="60" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -1627,11 +1627,11 @@
       <c r="T6" s="30"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -1657,44 +1657,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72" t="s">
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72" t="s">
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72" t="s">
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="73"/>
+      <c r="R12" s="72"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
@@ -1707,12 +1707,12 @@
       <c r="J13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
       <c r="O13" s="18" t="s">
         <v>29</v>
       </c>
@@ -1727,88 +1727,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="45"/>
       <c r="H15" s="43"/>
       <c r="I15" s="44"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="41"/>
       <c r="H16" s="39"/>
       <c r="I16" s="40"/>
       <c r="J16" s="42"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="27"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
       <c r="I17" s="46"/>
       <c r="J17" s="47"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="30"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="31"/>
@@ -1816,6 +1816,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -1825,20 +1839,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,70 +1892,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="63" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Producto</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="80" t="str">
+      <c r="B3" s="64" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de los productos que se van a utilzar en el Spa</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2038,8 +2038,8 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86" t="s">
+      <c r="I5" s="60"/>
+      <c r="J5" s="60" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -2149,43 +2149,27 @@
       <c r="S7" s="27"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>60</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="33"/>
       <c r="R8" s="22"/>
       <c r="S8" s="27"/>
@@ -2193,11 +2177,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -2224,44 +2208,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72" t="s">
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72" t="s">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="73"/>
+      <c r="R14" s="72"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="18" t="s">
         <v>27</v>
       </c>
@@ -2274,12 +2258,12 @@
       <c r="J15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="18" t="s">
         <v>29</v>
       </c>
@@ -2294,88 +2278,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="45"/>
       <c r="H17" s="43"/>
       <c r="I17" s="44"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="41"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="27"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="29"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="30"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
@@ -2383,12 +2367,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -2396,16 +2384,12 @@
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -2430,9 +2414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,70 +2443,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="63" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>categoria</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="80" t="str">
+      <c r="B3" s="64" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2606,7 +2590,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="60" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -2678,39 +2662,23 @@
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>60</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="33"/>
       <c r="R7" s="22"/>
       <c r="S7" s="27"/>
@@ -2718,11 +2686,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -2748,44 +2716,44 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72" t="s">
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72" t="s">
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72" t="s">
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="73"/>
+      <c r="R13" s="72"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -2798,12 +2766,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -2818,88 +2786,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="45"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="41"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
       <c r="O17" s="27"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
       <c r="O18" s="30"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
@@ -2907,17 +2875,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
@@ -2930,6 +2887,17 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -2943,6 +2911,7 @@
     <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
     <hyperlink ref="A17:B17" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
+    <hyperlink ref="B7" location="Producto!A1" display="Producto" xr:uid="{2857898C-A5B7-41EB-8723-7885EDC0EF23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2981,70 +2950,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="str">
+      <c r="B2" s="63" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>ProductoporInventario</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="80" t="str">
+      <c r="B3" s="64" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>objeto de dominio gestiona el inventario de productos disponibles en el spa.</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3128,7 +3097,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="60" t="s">
         <v>58</v>
       </c>
       <c r="K5" s="11" t="s">
@@ -3216,7 +3185,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="60" t="s">
         <v>58</v>
       </c>
       <c r="K7" s="11" t="s">
@@ -3330,11 +3299,11 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -3361,44 +3330,44 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72" t="s">
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72" t="s">
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72" t="s">
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="73"/>
+      <c r="R15" s="72"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="18" t="s">
         <v>27</v>
       </c>
@@ -3411,12 +3380,12 @@
       <c r="J16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="18" t="s">
         <v>29</v>
       </c>
@@ -3431,88 +3400,88 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="45"/>
       <c r="H18" s="43"/>
       <c r="I18" s="44"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="41"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
       <c r="J19" s="42"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="27"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="29"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="47"/>
       <c r="H20" s="48"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="30"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="31"/>
@@ -3520,6 +3489,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="K18:N18"/>
@@ -3532,17 +3512,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{2661BA5B-315D-409F-A91A-97490855962B}"/>
@@ -3563,9 +3532,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3713,19 +3685,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3749,9 +3717,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Productos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1409A-86C4-458D-81B8-1C48EA3A2DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66D276-3B6C-4D62-9BC2-25A5BA4B9CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="806" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="806" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="218">
   <si>
     <t>Descripción</t>
   </si>
@@ -162,18 +162,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nombre </t>
   </si>
   <si>
@@ -304,6 +292,432 @@
   </si>
   <si>
     <t>Esta combinación identifica los productos que hay en el inventario</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que violaciones respecto a tipo de dato, longitud, obligatoriedad, formato o rango no se cumplieron</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>crear ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos ProductoPorFabricantes al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo ProductoPorFabricante en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-001</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un ProductoPorFabricante creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-002</t>
+  </si>
+  <si>
+    <t>modificar ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un ProductoPorFabricante en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un ProductoPorFabricante.</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-004</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un ProductoPorFabricante con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-005</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el ProductoPorFabricante no existe.</t>
+  </si>
+  <si>
+    <t>Consultar ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un ProductoPorFabricante registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un ProductoPorFabricante.</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-003</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Eliminar ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un ProductoPorFabricante del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada ProductoPorFabricante.</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-006</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del ProductoPorFabricante</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-001</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-002</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-003</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-005</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-006</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-004</t>
+  </si>
+  <si>
+    <t>Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario debe estar permitido para consultar </t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorInventario-007</t>
+  </si>
+  <si>
+    <t>crear Producto</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Producto en el sistema.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Producto creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del Producto</t>
+  </si>
+  <si>
+    <t>modificar Producto</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Producto en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Producto.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Producto con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del Producto</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el Producto no existe.</t>
+  </si>
+  <si>
+    <t>Consultar Producto</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Producto registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Producto.</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del Producto</t>
+  </si>
+  <si>
+    <t>Eliminar Producto</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un Producto del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Producto.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Producto</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del Producto</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-008</t>
+  </si>
+  <si>
+    <t>Pol-ProductoPorFabricante-007</t>
+  </si>
+  <si>
+    <t>No debe existir otro Producto Por Fabricante con el mismo nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos del nuevo Producto Por Fabricante deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango </t>
+  </si>
+  <si>
+    <t>Debe de exisitir una categoria a la cual debe estar asociado el Producto Por Fabricante</t>
+  </si>
+  <si>
+    <t>Debe existir el Producto Por Fabricante que se esta modificando</t>
+  </si>
+  <si>
+    <t>Que el Producto Por Fabricante exista y no tenga existencias del mismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otro Producto Por Fabricante, a excepcion de que sea el mismo Producto Por Fabricante que se esta modificando </t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos Productos en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Pol-Producto-001</t>
+  </si>
+  <si>
+    <t>No debe existir otro producto con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Pol-Producto-002</t>
+  </si>
+  <si>
+    <t>El nuevo producto deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Pol-Producto-003</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una categoria a la cual debe estar asociado el producto</t>
+  </si>
+  <si>
+    <t>Pol-Producto-005</t>
+  </si>
+  <si>
+    <t>No debe existir otro producto, a excepcion de que sea el mismo producto que se esta modificando</t>
+  </si>
+  <si>
+    <t>Pol-Producto-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir el producto que se esta modificando </t>
+  </si>
+  <si>
+    <t>Pol-Producto-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-Producto-008: </t>
+  </si>
+  <si>
+    <t>El usuario debe estar permitido para consultar</t>
+  </si>
+  <si>
+    <t>Pol-Producto-007</t>
+  </si>
+  <si>
+    <t>Que el producto exista y no tenga existencias del mismo</t>
+  </si>
+  <si>
+    <t>crear Categoria</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Categoria en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-Categoria-001</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Categoria creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del Categoria</t>
+  </si>
+  <si>
+    <t>Pol-Categoria-002</t>
+  </si>
+  <si>
+    <t>Pol-Categoria-003</t>
+  </si>
+  <si>
+    <t>modificar Categoria</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Categoria.</t>
+  </si>
+  <si>
+    <t>Pol-Categoria-005</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Categoria con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del Categoria</t>
+  </si>
+  <si>
+    <t>Pol-Categoria-006</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el Categoria no existe.</t>
+  </si>
+  <si>
+    <t>Consultar Categoria</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Categoria.</t>
+  </si>
+  <si>
+    <t>Pol-Categoria-004</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del Categoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-Categoria-008: </t>
+  </si>
+  <si>
+    <t>Eliminar Categoria</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Categoria.</t>
+  </si>
+  <si>
+    <t>Pol-Categoria-007</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Categoria</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del Categoria</t>
+  </si>
+  <si>
+    <t>No debe existir otra categoria con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Los datos de la nueva categoria deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
+  </si>
+  <si>
+    <t>Debe de exisitir un inventario a la cual debe estar asociado la categoria</t>
+  </si>
+  <si>
+    <t>No debe existir otra categoria, a excepcion de que sea la misma categoria que se esta modificando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir la categoria que se esta modificando </t>
+  </si>
+  <si>
+    <t>Que la categoria exista y no tenga productos asociados</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de una categoria en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un categoria registrada en el sistema.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevas categorias en el sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar una categoria del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>crear ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos ProductoPorInventarios al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo ProductoPorInventario en el sistema.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un ProductoPorInventario creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>modificar ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un ProductoPorInventario en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un ProductoPorInventario.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un ProductoPorInventario con el mismo nombre</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el ProductoPorInventario no existe.</t>
+  </si>
+  <si>
+    <t>Consultar ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un ProductoPorInventario registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un ProductoPorInventario.</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>Eliminar ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un ProductoPorInventario del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada ProductoPorInventario.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del ProductoPorInventario</t>
+  </si>
+  <si>
+    <t>No debe existir otro Producto por inventario con el mismo nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos del nuevo Producto por inventario deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otro Producto por inventario, a excepcion de que sea el mismo Producto por inventario que se esta modificando </t>
+  </si>
+  <si>
+    <t>Debe existir el Producto por inventario que se esta modificando</t>
+  </si>
+  <si>
+    <t>Que el Producto por inventario exista y no tenga existencias del mismo</t>
+  </si>
+  <si>
+    <t>Debe de exisitir una categoria a la cual debe estar asociado el Producto por inventario</t>
   </si>
 </sst>
 </file>
@@ -366,7 +780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,8 +841,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -606,13 +1026,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -666,48 +1249,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -722,39 +1275,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +1313,24 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -814,62 +1352,227 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -881,8 +1584,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFCCCC00"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1283,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1298,73 +2001,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D2" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="B4" s="34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="C4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>43</v>
+      <c r="C5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1381,10 +2084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="K11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,86 +2098,88 @@
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="str">
+      <c r="B2" s="48" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Producto Por Fabricante</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="49" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante en particular</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1525,29 +2230,29 @@
       <c r="P4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="36" t="str">
+      <c r="Q4" s="26" t="str">
         <f>A14</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
-        <f>A15</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
+        <v>crear ProductoPorFabricante</v>
+      </c>
+      <c r="R4" s="24">
         <f>A16</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar ProductoPorFabricante</v>
+      </c>
+      <c r="T4" s="2">
+        <f>A18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1558,38 +2263,38 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="60" t="s">
-        <v>58</v>
+      <c r="J5" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1604,34 +2309,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -1646,55 +2351,55 @@
     </row>
     <row r="10" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="59" t="str">
+        <v>58</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="38" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="72"/>
+      <c r="R12" s="45"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
@@ -1707,12 +2412,12 @@
       <c r="J13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="18" t="s">
         <v>29</v>
       </c>
@@ -1722,114 +2427,316 @@
       <c r="Q13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
+    <row r="14" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="92" t="str">
+        <f>B6</f>
+        <v>Alfanumerico</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" s="117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="80"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
+      <c r="O15" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="118"/>
+    </row>
+    <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="119"/>
+    </row>
+    <row r="17" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="100"/>
+      <c r="C17" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="101" t="str">
+        <f>B6</f>
+        <v>Alfanumerico</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="121"/>
+    </row>
+    <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="110" t="str">
+        <f>B6</f>
+        <v>Alfanumerico</v>
+      </c>
+      <c r="I20" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="88"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="115"/>
+    </row>
+    <row r="22" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="76"/>
+      <c r="C22" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="116" t="str">
+        <f>B6</f>
+        <v>Alfanumerico</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="127" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
+  <mergeCells count="39">
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -1839,20 +2746,32 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
     <hyperlink ref="C10" location="'Producto por fabricante'!A5" display="'Producto por fabricante'!A5" xr:uid="{7567CB98-95DE-4E2F-B791-2821FA7D497F}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{C39E55FC-4C94-4AD2-84E5-01B8E6802885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1861,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O16" sqref="A16:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,79 +2802,80 @@
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="str">
+      <c r="B2" s="48" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Producto</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="49" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de los productos que se van a utilzar en el Spa</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2006,29 +2926,29 @@
       <c r="P4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="36" t="str">
+      <c r="Q4" s="26" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
+        <v>crear Producto</v>
+      </c>
+      <c r="R4" s="24">
         <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
         <f>A18</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A19</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar Producto</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2038,39 +2958,39 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60" t="s">
-        <v>58</v>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2085,34 +3005,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2127,34 +3047,34 @@
       <c r="I7" s="5"/>
       <c r="J7" s="12"/>
       <c r="K7" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2170,18 +3090,18 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="30"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -2196,56 +3116,56 @@
     </row>
     <row r="12" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="37" t="str">
+        <v>57</v>
+      </c>
+      <c r="C12" s="27" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69" t="s">
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69" t="s">
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="72"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="18" t="s">
         <v>27</v>
       </c>
@@ -2258,12 +3178,12 @@
       <c r="J15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
       <c r="O15" s="18" t="s">
         <v>29</v>
       </c>
@@ -2273,137 +3193,339 @@
       <c r="Q15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="24" t="s">
+      <c r="R15" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
+    <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="92"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q16" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="80"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
+      <c r="O17" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="124" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="118"/>
+    </row>
+    <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q18" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="119"/>
+    </row>
+    <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="121"/>
+    </row>
+    <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" s="122"/>
+    </row>
+    <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="109"/>
+      <c r="C22" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="88"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="115"/>
+    </row>
+    <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="R24" s="127" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="39">
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:N23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="R16:R18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
     <hyperlink ref="B8" location="'Producto por fabricante'!A1" display="Producto Por Fabricante" xr:uid="{EA2B0AA6-0519-4FB1-B6A1-5512E102BA54}"/>
+    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{8DA2A0C3-CAA4-4ED1-AE57-C2CD0A1D9206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2412,11 +3534,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,8 +3550,8 @@
     <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -2437,76 +3559,77 @@
     <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="62" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="str">
+      <c r="B2" s="48" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>categoria</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="49" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2557,29 +3680,29 @@
       <c r="P4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="36" t="str">
+      <c r="Q4" s="26" t="str">
         <f>A15</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
+        <v>crear Categoria</v>
+      </c>
+      <c r="R4" s="24">
         <f>A16</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
         <f>A17</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar Categoria</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2590,38 +3713,38 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="60" t="s">
-        <v>58</v>
+      <c r="J5" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2636,34 +3759,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2679,18 +3802,18 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="30"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -2705,55 +3828,55 @@
     </row>
     <row r="11" spans="1:20" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>62</v>
+      </c>
+      <c r="C11" s="27" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69" t="s">
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69" t="s">
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69" t="s">
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="72"/>
+      <c r="R13" s="45"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -2766,12 +3889,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -2781,103 +3904,320 @@
       <c r="Q14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
+    <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="91"/>
+      <c r="C15" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="92"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="R15" s="117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="93"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
       <c r="N16" s="80"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32"/>
+      <c r="O16" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="P16" s="124" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="118"/>
+    </row>
+    <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="119"/>
+    </row>
+    <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="100"/>
+      <c r="C18" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" s="120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="121"/>
+    </row>
+    <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="109"/>
+      <c r="C21" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="88"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="125" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="115"/>
+    </row>
+    <row r="23" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="R23" s="127" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
+  <mergeCells count="39">
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="R15:R17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -2887,31 +4227,16 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
     <hyperlink ref="B7" location="Producto!A1" display="Producto" xr:uid="{2857898C-A5B7-41EB-8723-7885EDC0EF23}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{75D08861-D0DC-428B-9AE7-E78EB92EF00C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2919,10 +4244,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACBC9CF-EF82-4AD8-AB9C-5C157B409628}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,79 +4266,80 @@
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63" t="str">
+      <c r="B2" s="48" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>ProductoporInventario</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="64" t="str">
+      <c r="B3" s="49" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>objeto de dominio gestiona el inventario de productos disponibles en el spa.</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3064,29 +4390,29 @@
       <c r="P4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="36" t="str">
+      <c r="Q4" s="26" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
+        <v>crear ProductoPorInventario</v>
+      </c>
+      <c r="R4" s="24">
         <f>A18</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
         <f>A19</f>
-        <v>Reponsabilidad 3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="str">
         <f>A20</f>
-        <v>Reponsabilidad 4</v>
+        <v>modificar ProductoPorInventario</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3097,38 +4423,38 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="60" t="s">
-        <v>58</v>
+      <c r="J5" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3143,34 +4469,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>69</v>
+      <c r="A7" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3185,38 +4511,38 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="60" t="s">
-        <v>58</v>
+      <c r="J7" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>70</v>
+      <c r="A8" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3228,39 +4554,39 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3275,35 +4601,35 @@
       <c r="I9" s="5"/>
       <c r="J9" s="12"/>
       <c r="K9" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -3318,56 +4644,56 @@
     </row>
     <row r="13" spans="1:20" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="37" t="str">
+        <v>75</v>
+      </c>
+      <c r="C13" s="27" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69" t="s">
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69" t="s">
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="72"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="18" t="s">
         <v>27</v>
       </c>
@@ -3380,12 +4706,12 @@
       <c r="J16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
       <c r="O16" s="18" t="s">
         <v>29</v>
       </c>
@@ -3395,114 +4721,303 @@
       <c r="Q16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="25"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
+    <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="92"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="123" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q17" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="R17" s="117" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
       <c r="N18" s="80"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="32"/>
+      <c r="O18" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="118"/>
+    </row>
+    <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q19" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="119"/>
+    </row>
+    <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="100"/>
+      <c r="C20" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="R20" s="120" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="121"/>
+    </row>
+    <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="R22" s="122"/>
+    </row>
+    <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="109"/>
+      <c r="C23" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="88"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="111" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="115"/>
+    </row>
+    <row r="25" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="76"/>
+      <c r="C25" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="126" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q25" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="R25" s="127" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
+  <mergeCells count="39">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3512,19 +5027,32 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{2661BA5B-315D-409F-A91A-97490855962B}"/>
-    <hyperlink ref="H20" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{2038C000-F3D8-46E4-9417-65CB16BEF648}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{4C17450B-A69E-4D84-BA10-C52CDD45A397}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{3087E125-AD18-409E-8895-DD966EEC7288}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{13152A48-8A79-4D8A-AA4D-FCB4E25A7ABD}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{D7F1534A-3D9C-4BEE-B09F-B90D33675FC5}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{EC45FA90-357E-4E55-BA09-81B260F4DE4E}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{A32A7E5A-8016-4303-B751-721264EF9950}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{51FEC00D-1F2A-44D8-887A-8A8C4CF155D2}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{56573C61-E17D-45D9-9B5B-5D46F22C8694}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{ED3BD314-1924-4196-A262-F96E0FBA0834}"/>
+    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{DE2A8766-C1B7-4B18-B377-EE6FEF9EEFC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3532,12 +5060,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3685,15 +5210,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3717,10 +5246,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Productos.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66D276-3B6C-4D62-9BC2-25A5BA4B9CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{3D66D276-3B6C-4D62-9BC2-25A5BA4B9CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70CBC554-B5DD-4A97-B529-ED787F53EFD2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="806" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView minimized="1" xWindow="10440" yWindow="30" windowWidth="7920" windowHeight="10770" tabRatio="806" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="220">
   <si>
     <t>Descripción</t>
   </si>
@@ -718,13 +718,19 @@
   </si>
   <si>
     <t>Debe de exisitir una categoria a la cual debe estar asociado el Producto por inventario</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la cantidad que identifica a un producto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +781,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1195,7 +1209,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1319,260 +1333,263 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1655,9 +1672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1695,7 +1712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1801,7 +1818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1943,7 +1960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1986,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -2086,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="K11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -2116,70 +2133,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="76" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Producto Por Fabricante</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="77" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante en particular</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2332,11 +2349,11 @@
       <c r="T6" s="22"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -2362,44 +2379,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44" t="s">
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44" t="s">
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44" t="s">
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44" t="s">
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="45"/>
+      <c r="R12" s="85"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
@@ -2412,12 +2429,12 @@
       <c r="J13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="18" t="s">
         <v>29</v>
       </c>
@@ -2432,120 +2449,120 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="55" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="92" t="str">
+      <c r="H14" s="104" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="123" t="s">
+      <c r="J14" s="104"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="123" t="s">
+      <c r="P14" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="Q14" s="123" t="s">
+      <c r="Q14" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="R14" s="117" t="s">
+      <c r="R14" s="54" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="123" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="124" t="s">
+      <c r="P15" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="118"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="123" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="123" t="s">
+      <c r="P16" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="Q16" s="123" t="s">
+      <c r="Q16" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="R16" s="119"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="64" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="63" t="s">
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="101" t="str">
+      <c r="H17" s="125" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
       <c r="O17" s="42" t="s">
         <v>91</v>
       </c>
@@ -2555,25 +2572,25 @@
       <c r="Q17" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="R17" s="120" t="s">
+      <c r="R17" s="57" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
       <c r="O18" s="42" t="s">
         <v>84</v>
       </c>
@@ -2583,23 +2600,23 @@
       <c r="Q18" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="121"/>
+      <c r="R18" s="58"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="121"/>
       <c r="O19" s="42" t="s">
         <v>101</v>
       </c>
@@ -2609,86 +2626,86 @@
       <c r="Q19" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="R19" s="122"/>
+      <c r="R19" s="59"/>
     </row>
     <row r="20" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="88" t="s">
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="110" t="str">
+      <c r="H20" s="73" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
-      <c r="I20" s="88" t="s">
+      <c r="I20" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="125" t="s">
+      <c r="J20" s="50"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="125" t="s">
+      <c r="P20" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="Q20" s="88" t="s">
+      <c r="Q20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="R20" s="111" t="s">
+      <c r="R20" s="52" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="125" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="125" t="s">
+      <c r="P21" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="115"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="53"/>
     </row>
     <row r="22" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="116" t="str">
+      <c r="H22" s="44" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
@@ -2696,38 +2713,58 @@
         <v>100</v>
       </c>
       <c r="J22" s="41"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="126" t="s">
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="126" t="s">
+      <c r="P22" s="48" t="s">
         <v>139</v>
       </c>
       <c r="Q22" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="R22" s="127" t="s">
+      <c r="R22" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="C14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="K22:N22"/>
@@ -2737,31 +2774,11 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="K20:N21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2782,7 +2799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O16" sqref="A16:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -2812,70 +2829,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="76" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Producto</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="77" t="str">
         <f>+'Listado Objetos de Dominio'!B4</f>
         <v>Objeto de dominio que contiene la informacion de los productos que se van a utilzar en el Spa</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3097,11 +3114,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -3128,44 +3145,44 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44" t="s">
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44" t="s">
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44" t="s">
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="45"/>
+      <c r="R14" s="85"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="18" t="s">
         <v>27</v>
       </c>
@@ -3178,12 +3195,12 @@
       <c r="J15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
       <c r="O15" s="18" t="s">
         <v>29</v>
       </c>
@@ -3198,118 +3215,118 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="55" t="s">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="92"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="123" t="s">
+      <c r="J16" s="104"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="P16" s="123" t="s">
+      <c r="P16" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="Q16" s="123" t="s">
+      <c r="Q16" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="117" t="s">
+      <c r="R16" s="54" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="123" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="P17" s="124" t="s">
+      <c r="P17" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="118"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="55"/>
     </row>
     <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="123" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="P18" s="123" t="s">
+      <c r="P18" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="Q18" s="123" t="s">
+      <c r="Q18" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="119"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="64" t="s">
+      <c r="B19" s="108"/>
+      <c r="C19" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="63" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="66"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="115"/>
       <c r="O19" s="42" t="s">
         <v>148</v>
       </c>
@@ -3319,25 +3336,25 @@
       <c r="Q19" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="R19" s="120" t="s">
+      <c r="R19" s="57" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
       <c r="O20" s="42" t="s">
         <v>144</v>
       </c>
@@ -3347,23 +3364,23 @@
       <c r="Q20" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="R20" s="121"/>
+      <c r="R20" s="58"/>
     </row>
     <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="74"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="121"/>
       <c r="O21" s="42" t="s">
         <v>150</v>
       </c>
@@ -3373,110 +3390,137 @@
       <c r="Q21" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="R21" s="122"/>
+      <c r="R21" s="59"/>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="82" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="88" t="s">
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="110" t="s">
+      <c r="H22" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="88" t="s">
+      <c r="I22" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="88"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="125" t="s">
+      <c r="J22" s="50"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="125" t="s">
+      <c r="P22" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="Q22" s="88" t="s">
+      <c r="Q22" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="111" t="s">
+      <c r="R22" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="125" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="P23" s="125" t="s">
+      <c r="P23" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="115"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="53"/>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="44" t="s">
         <v>56</v>
       </c>
       <c r="I24" s="41" t="s">
         <v>130</v>
       </c>
       <c r="J24" s="41"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="126" t="s">
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="126" t="s">
+      <c r="P24" s="48" t="s">
         <v>156</v>
       </c>
       <c r="Q24" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="R24" s="127" t="s">
+      <c r="R24" s="49" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="R19:R21"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:N23"/>
     <mergeCell ref="Q22:Q23"/>
@@ -3489,33 +3533,6 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="C19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O14:P14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3536,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
@@ -3566,70 +3583,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="76" t="str">
         <f>+'Listado Objetos de Dominio'!A3</f>
         <v>categoria</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="77" t="str">
         <f>+'Listado Objetos de Dominio'!B3</f>
         <v>objeto de dominio que describe los productos específicos ofrecidos por cada fabricante</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3809,11 +3826,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -3839,44 +3856,44 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44" t="s">
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44" t="s">
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44" t="s">
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44" t="s">
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="45"/>
+      <c r="R13" s="85"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -3889,12 +3906,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -3909,118 +3926,118 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="55" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="123" t="s">
+      <c r="J15" s="104"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="P15" s="123" t="s">
+      <c r="P15" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="Q15" s="123" t="s">
+      <c r="Q15" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="R15" s="117" t="s">
+      <c r="R15" s="54" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="123" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="P16" s="124" t="s">
+      <c r="P16" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="118"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="55"/>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="123" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="P17" s="123" t="s">
+      <c r="P17" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="Q17" s="123" t="s">
+      <c r="Q17" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="R17" s="119"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="64" t="s">
+      <c r="B18" s="108"/>
+      <c r="C18" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="63" t="s">
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="101" t="s">
+      <c r="H18" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
       <c r="O18" s="42" t="s">
         <v>166</v>
       </c>
@@ -4030,25 +4047,25 @@
       <c r="Q18" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="R18" s="120" t="s">
+      <c r="R18" s="57" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="70"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
       <c r="O19" s="42" t="s">
         <v>162</v>
       </c>
@@ -4058,23 +4075,23 @@
       <c r="Q19" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="R19" s="121"/>
+      <c r="R19" s="58"/>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="121"/>
       <c r="O20" s="42" t="s">
         <v>169</v>
       </c>
@@ -4084,110 +4101,137 @@
       <c r="Q20" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="R20" s="122"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="82" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="88" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="88" t="s">
+      <c r="I21" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="J21" s="88"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="125" t="s">
+      <c r="J21" s="50"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="P21" s="125" t="s">
+      <c r="P21" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="Q21" s="88" t="s">
+      <c r="Q21" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="52" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="125" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="P22" s="125" t="s">
+      <c r="P22" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="115"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="53"/>
     </row>
     <row r="23" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="116" t="s">
+      <c r="H23" s="44" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>177</v>
       </c>
       <c r="J23" s="41"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="126" t="s">
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="P23" s="126" t="s">
+      <c r="P23" s="48" t="s">
         <v>186</v>
       </c>
       <c r="Q23" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="R23" s="127" t="s">
+      <c r="R23" s="49" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="R18:R20"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:N22"/>
     <mergeCell ref="Q21:Q22"/>
@@ -4200,33 +4244,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:N17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -4246,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACBC9CF-EF82-4AD8-AB9C-5C157B409628}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,70 +4293,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="76" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>ProductoporInventario</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="77" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>objeto de dominio gestiona el inventario de productos disponibles en el spa.</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -4451,23 +4468,25 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="K6" s="11" t="s">
         <v>50</v>
       </c>
@@ -4484,9 +4503,9 @@
         <v>50</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="23"/>
+        <v>219</v>
+      </c>
+      <c r="Q6" s="128"/>
       <c r="R6" s="19"/>
       <c r="S6" s="21"/>
       <c r="T6" s="22"/>
@@ -4625,11 +4644,11 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -4651,49 +4670,49 @@
       </c>
       <c r="C13" s="27" t="str">
         <f>+A6</f>
-        <v>Nombre</v>
+        <v>cantidad</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44" t="s">
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44" t="s">
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44" t="s">
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44" t="s">
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="45"/>
+      <c r="R15" s="85"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="18" t="s">
         <v>27</v>
       </c>
@@ -4706,12 +4725,12 @@
       <c r="J16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="18" t="s">
         <v>29</v>
       </c>
@@ -4726,118 +4745,118 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="55" t="s">
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="123" t="s">
+      <c r="J17" s="104"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="123" t="s">
+      <c r="P17" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="Q17" s="123" t="s">
+      <c r="Q17" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="R17" s="117" t="s">
+      <c r="R17" s="54" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="123" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="124" t="s">
+      <c r="P18" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="118"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="55"/>
     </row>
     <row r="19" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="123" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="123" t="s">
+      <c r="P19" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="Q19" s="123" t="s">
+      <c r="Q19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="R19" s="119"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="64" t="s">
+      <c r="B20" s="108"/>
+      <c r="C20" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="63" t="s">
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="101" t="s">
+      <c r="H20" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="66"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115"/>
       <c r="O20" s="42" t="s">
         <v>107</v>
       </c>
@@ -4847,25 +4866,25 @@
       <c r="Q20" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="R20" s="120" t="s">
+      <c r="R20" s="57" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="70"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
       <c r="O21" s="42" t="s">
         <v>105</v>
       </c>
@@ -4875,23 +4894,23 @@
       <c r="Q21" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="R21" s="121"/>
+      <c r="R21" s="58"/>
     </row>
     <row r="22" spans="1:18" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="121"/>
       <c r="O22" s="42" t="s">
         <v>108</v>
       </c>
@@ -4901,110 +4920,133 @@
       <c r="Q22" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="R22" s="122"/>
+      <c r="R22" s="59"/>
     </row>
     <row r="23" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="82" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="88" t="s">
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="110" t="s">
+      <c r="H23" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="88" t="s">
+      <c r="I23" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="J23" s="88"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="125" t="s">
+      <c r="J23" s="50"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="P23" s="125" t="s">
+      <c r="P23" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="Q23" s="88" t="s">
+      <c r="Q23" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="R23" s="111" t="s">
+      <c r="R23" s="52" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="125" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="125" t="s">
+      <c r="P24" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="115"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="53"/>
     </row>
     <row r="25" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="43" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="116" t="s">
+      <c r="H25" s="44" t="s">
         <v>56</v>
       </c>
       <c r="I25" s="41" t="s">
         <v>209</v>
       </c>
       <c r="J25" s="41"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="126" t="s">
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="P25" s="126" t="s">
+      <c r="P25" s="48" t="s">
         <v>216</v>
       </c>
       <c r="Q25" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="R25" s="127" t="s">
+      <c r="R25" s="49" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:P15"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="K25:N25"/>
@@ -5018,32 +5060,9 @@
     <mergeCell ref="K23:N24"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="R23:R24"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="R17:R19"/>
     <mergeCell ref="A20:B22"/>
     <mergeCell ref="C20:F22"/>
     <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{2661BA5B-315D-409F-A91A-97490855962B}"/>
@@ -5060,9 +5079,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5210,19 +5232,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5246,9 +5264,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
